--- a/medicine/Psychotrope/Vitis_coignetiae/Vitis_coignetiae.xlsx
+++ b/medicine/Psychotrope/Vitis_coignetiae/Vitis_coignetiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigne du Japon, Vigne de Coignet
 Vitis coignetiae ou vigne de Coignet (ou vigne du Japon) est une espèce d'arbrisseau sarmenteux de la famille des Vitaceae, à raisins rouges, originaire du nord-est de l'Asie.
@@ -512,10 +524,12 @@
           <t>Étymologie et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'espèce est dédié à Mme Coignet de Lyon qui en rapporta des graines au retour d'un voyage au Japon en 1875[1]. Elle les donna à son père, Jean Sisley, horticulteur lyonnais, qui en envoya à V. Pulliat, ampélographe et vigneron du Beaujolais, amateur de vignes exotiques, qui en donna la première description botanique[2].
-Cette vigne fut aussi rapportée en 1884 des régions neigeuses du Japon par Henri Degron, envoyé dans ce pays pour rechercher des vignes sauvages résistantes au phylloxera. Degron envoya des plants au professeur Planchon de la Faculté de Pharmacie de Montpellier qui la nomma Vitis coignetiae mais ne la retint pas en raison de sa faible résistance au phylloxera. Degron en fit une plantation à Crespières, en Seine et Oise, où un pied exposé au nord atteignit une longueur de 32,8 mètres et une hauteur de cep de 2,8 mètres[3]. Sous le climat normand, ce cépage donne un vin âpre, très riche en couleur et en extrait.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'espèce est dédié à Mme Coignet de Lyon qui en rapporta des graines au retour d'un voyage au Japon en 1875. Elle les donna à son père, Jean Sisley, horticulteur lyonnais, qui en envoya à V. Pulliat, ampélographe et vigneron du Beaujolais, amateur de vignes exotiques, qui en donna la première description botanique.
+Cette vigne fut aussi rapportée en 1884 des régions neigeuses du Japon par Henri Degron, envoyé dans ce pays pour rechercher des vignes sauvages résistantes au phylloxera. Degron envoya des plants au professeur Planchon de la Faculté de Pharmacie de Montpellier qui la nomma Vitis coignetiae mais ne la retint pas en raison de sa faible résistance au phylloxera. Degron en fit une plantation à Crespières, en Seine et Oise, où un pied exposé au nord atteignit une longueur de 32,8 mètres et une hauteur de cep de 2,8 mètres. Sous le climat normand, ce cépage donne un vin âpre, très riche en couleur et en extrait.
 Au Japon, cette vigne est connue sous le nom de ヤマブドウ yama-budō (littéralement "vigne de montagne"), en Corée de meoru.
 Variété : Vitis coignetiae var. glabrescens
 </t>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne de Coignet est une plante sarmenteuse très vigoureuse, développant de jeunes pousses de couleur pourpre.
 Les feuilles caduques sont de grande taille (15 à 30 cm de diamètre), simples, orbiculaires, dentées, avec un profond sinus pétiolaire. D'abord vertes, elles virent au rouge orangé à l'automne.
@@ -580,7 +596,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution d'origine s'étend du Japon (Hokkaido, Honshū et Shikoku), de l'île de Sakhaline (Russie) à la Corée.
 La vigne de Coignet pousse dans les régions froides et humides. On la trouve dans les régions montagneuses du Japon et jusqu'à 1300 m d'altitude en Corée.
@@ -612,11 +630,13 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le raisin de Vitis coignetiae contient des composés phénoliques responsables de certains caractères organoleptiques (couleur, amertume) et aux propriétés antioxydantes intéressantes sur le plan de la santé. Une étude comparative[4] a montré que la pellicule des grains de raisin de Coignet était un peu plus riche en polyphénols que le Muscat d'Alexandrie (un cépage de Vitis vinifera) mais que les pépins en était plus pauvres. Comparée globalement au muscat d'Alexandrie, cette composition donne une activité antioxydante équivalente pour la pellicule et plus faible pour les pépins.
-Plusieurs stilbénoïdes ont été identifiés[5], faisant au total 127 mg/100g ms. Le ptérostilbène domine, suivi par l'astringine.
-La couleur rouge intense du raisin est due à la présence d'anthocyanes[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raisin de Vitis coignetiae contient des composés phénoliques responsables de certains caractères organoleptiques (couleur, amertume) et aux propriétés antioxydantes intéressantes sur le plan de la santé. Une étude comparative a montré que la pellicule des grains de raisin de Coignet était un peu plus riche en polyphénols que le Muscat d'Alexandrie (un cépage de Vitis vinifera) mais que les pépins en était plus pauvres. Comparée globalement au muscat d'Alexandrie, cette composition donne une activité antioxydante équivalente pour la pellicule et plus faible pour les pépins.
+Plusieurs stilbénoïdes ont été identifiés, faisant au total 127 mg/100g ms. Le ptérostilbène domine, suivi par l'astringine.
+La couleur rouge intense du raisin est due à la présence d'anthocyanes
 (des diglucosides de cyanidine, de pétunidine, de malvidine, de péonidine et des glucosides de delphinidine et de malvidine), manifestant in vitro une activité anti-invasive sur les cellules du cancer du colon.
 </t>
         </is>
@@ -646,11 +666,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Alimentaire
-En Corée, le raisin de V. coignetiae est consommé frais et servait traditionnellement à faire des boissons alcoolisées[5]. Il est actuellement cultivé pour produire du vin[7].
-Au Japon, la première culture de yama-budō (V. coignetiae) pour la production de vin date des années 1980. Quelques entreprises viticoles produisent un vin âpre et aigrelet qui est adouci par l'addition de sucre[8]. Outre le vin, on transforme également le yama-budō en jus et en confiture[9].
+En Corée, le raisin de V. coignetiae est consommé frais et servait traditionnellement à faire des boissons alcoolisées. Il est actuellement cultivé pour produire du vin.
+Au Japon, la première culture de yama-budō (V. coignetiae) pour la production de vin date des années 1980. Quelques entreprises viticoles produisent un vin âpre et aigrelet qui est adouci par l'addition de sucre. Outre le vin, on transforme également le yama-budō en jus et en confiture.
 Ornementales
 La vigne de Coignet est utilisée comme plante ornementale pour son feuillage d'automne qui vire au rouge lie-de-vin puis à l'écarlate.
 Médicinales
